--- a/info/metricas/NN/TANH/NN3.xlsx
+++ b/info/metricas/NN/TANH/NN3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,34 +436,34 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>R2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>MSE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MeanAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MedianAE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>MaxError</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>MSE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MeanAE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MedianAE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>varianzaExplicada</t>
@@ -471,10 +471,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>MAPE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SMAPE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Iteracion</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tecnica</t>
         </is>
@@ -485,34 +495,40 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1498.0712890625</v>
+        <v>0.7711831285112595</v>
       </c>
       <c r="C2" t="n">
-        <v>86324.36377950131</v>
+        <v>85085.82711162877</v>
       </c>
       <c r="D2" t="n">
-        <v>190.7112027174427</v>
+        <v>190.4849129480681</v>
       </c>
       <c r="E2" t="n">
-        <v>969575.7546154785</v>
+        <v>108.0082470703125</v>
       </c>
       <c r="F2" t="n">
-        <v>107.1321499633789</v>
+        <v>968425.2974279785</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7707053578588137</v>
+        <v>1495.493408203125</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7739940316118831</v>
-      </c>
-      <c r="I2" t="inlineStr">
+        <v>0.7731885091175795</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.67199206749357e+16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-102567.1082040755</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>TANH3</t>
         </is>
       </c>
     </row>
@@ -521,34 +537,40 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1497.64306640625</v>
+        <v>0.7534828763726465</v>
       </c>
       <c r="C3" t="n">
-        <v>92729.94269021797</v>
+        <v>86701.55299447164</v>
       </c>
       <c r="D3" t="n">
-        <v>195.9840674933817</v>
+        <v>191.4708899873003</v>
       </c>
       <c r="E3" t="n">
-        <v>996382.9991363526</v>
+        <v>109.7422003173828</v>
       </c>
       <c r="F3" t="n">
-        <v>107.507333984375</v>
+        <v>973438.0046954346</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7534183935030425</v>
+        <v>1499.903442382812</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7564394711904029</v>
-      </c>
-      <c r="I3" t="inlineStr">
+        <v>0.7549799300936044</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.495133322387756e+16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-100284.4753113834</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>TANH3</t>
         </is>
       </c>
     </row>
@@ -557,34 +579,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1496.127197265625</v>
+        <v>0.7561447469534782</v>
       </c>
       <c r="C4" t="n">
-        <v>92679.94905877786</v>
+        <v>87359.90890065383</v>
       </c>
       <c r="D4" t="n">
-        <v>195.4303810068006</v>
+        <v>190.9075947576803</v>
       </c>
       <c r="E4" t="n">
-        <v>993568.0570385742</v>
+        <v>109.7456823730469</v>
       </c>
       <c r="F4" t="n">
-        <v>110.3204473876954</v>
+        <v>970574.2117480468</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7578376666284873</v>
+        <v>1500.050537109375</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7591677713979206</v>
-      </c>
-      <c r="I4" t="inlineStr">
+        <v>0.7568310128333082</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.60114639146666e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-98295.9646255293</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>TANH3</t>
         </is>
       </c>
     </row>
@@ -593,34 +621,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1496.345581054688</v>
+        <v>0.7752304903581664</v>
       </c>
       <c r="C5" t="n">
-        <v>92643.68187672892</v>
+        <v>88630.19568812856</v>
       </c>
       <c r="D5" t="n">
-        <v>196.7975811980073</v>
+        <v>195.48232071247</v>
       </c>
       <c r="E5" t="n">
-        <v>1000518.902810669</v>
+        <v>115.9634796142578</v>
       </c>
       <c r="F5" t="n">
-        <v>112.5428411865234</v>
+        <v>993832.1185021973</v>
       </c>
       <c r="G5" t="n">
-        <v>0.762399224963606</v>
+        <v>1496.457275390625</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7647028520136967</v>
-      </c>
-      <c r="I5" t="inlineStr">
+        <v>0.7769538689201955</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.299918098773378e+16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-108357.0890629295</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>TANH3</t>
         </is>
       </c>
     </row>
@@ -629,34 +663,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1494.1533203125</v>
+        <v>0.7654626796643929</v>
       </c>
       <c r="C6" t="n">
-        <v>85838.60675169568</v>
+        <v>86110.86314931311</v>
       </c>
       <c r="D6" t="n">
-        <v>187.3818290383539</v>
+        <v>188.4364410531275</v>
       </c>
       <c r="E6" t="n">
-        <v>952461.837001953</v>
+        <v>105.926953125</v>
       </c>
       <c r="F6" t="n">
-        <v>102.1081225585938</v>
+        <v>957822.4298730469</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7718796608436165</v>
+        <v>1494.659545898438</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7738106104821845</v>
-      </c>
-      <c r="I6" t="inlineStr">
+        <v>0.7673274326287811</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.540156082493852e+16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-100859.9317037806</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>TANH3</t>
         </is>
       </c>
     </row>
@@ -665,34 +705,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1495.111328125</v>
+        <v>0.7634573092937064</v>
       </c>
       <c r="C7" t="n">
-        <v>93481.68791445233</v>
+        <v>88250.4487016474</v>
       </c>
       <c r="D7" t="n">
-        <v>196.4335180284619</v>
+        <v>190.9858084733848</v>
       </c>
       <c r="E7" t="n">
-        <v>998471.5721386719</v>
+        <v>106.4404919433593</v>
       </c>
       <c r="F7" t="n">
-        <v>107.3254809570312</v>
+        <v>970780.8644702148</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7582945941853113</v>
+        <v>1489.310546875</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7628190053657575</v>
-      </c>
-      <c r="I7" t="inlineStr">
+        <v>0.7676751368535557</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.657082973820758e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-88134.86537623308</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>TANH3</t>
         </is>
       </c>
     </row>
@@ -701,34 +747,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1498.733276367188</v>
+        <v>0.7652113080499023</v>
       </c>
       <c r="C8" t="n">
-        <v>80480.04091119478</v>
+        <v>89110.22492731291</v>
       </c>
       <c r="D8" t="n">
-        <v>184.0451641417028</v>
+        <v>190.2097006569607</v>
       </c>
       <c r="E8" t="n">
-        <v>935501.5693322754</v>
+        <v>101.049140625</v>
       </c>
       <c r="F8" t="n">
-        <v>104.9634619140625</v>
+        <v>966835.9084393311</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7663844515396925</v>
+        <v>1488.078857421875</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7695629578147805</v>
-      </c>
-      <c r="I8" t="inlineStr">
+        <v>0.7674436976427876</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.516418689272808e+16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-104324.1550974265</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>TANH3</t>
         </is>
       </c>
     </row>
@@ -737,34 +789,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1497.83544921875</v>
+        <v>0.7677324071513453</v>
       </c>
       <c r="C9" t="n">
-        <v>85020.31887911822</v>
+        <v>87667.35532016565</v>
       </c>
       <c r="D9" t="n">
-        <v>187.4246670590464</v>
+        <v>189.8816042192044</v>
       </c>
       <c r="E9" t="n">
-        <v>952679.5826611328</v>
+        <v>103.9343188476562</v>
       </c>
       <c r="F9" t="n">
-        <v>105.1985815429687</v>
+        <v>965168.1942462159</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7593984391093644</v>
+        <v>1493.555786132812</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7607739434453036</v>
-      </c>
-      <c r="I9" t="inlineStr">
+        <v>0.7701180008836368</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.346063824406491e+16</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-102943.0686164157</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>TANH3</t>
         </is>
       </c>
     </row>
@@ -773,34 +831,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1492.847900390625</v>
+        <v>0.7501699960432342</v>
       </c>
       <c r="C10" t="n">
-        <v>85780.1415897353</v>
+        <v>94549.93578629621</v>
       </c>
       <c r="D10" t="n">
-        <v>189.7814608629562</v>
+        <v>199.7052002968977</v>
       </c>
       <c r="E10" t="n">
-        <v>964659.1655664062</v>
+        <v>111.7297631835937</v>
       </c>
       <c r="F10" t="n">
-        <v>108.2296093750001</v>
+        <v>1015101.533109131</v>
       </c>
       <c r="G10" t="n">
-        <v>0.766305676005362</v>
+        <v>1495.618041992188</v>
       </c>
       <c r="H10" t="n">
-        <v>0.768596297106076</v>
-      </c>
-      <c r="I10" t="inlineStr">
+        <v>0.7510071647572678</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.386015113534752e+16</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-121050.1734159547</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>TANH3</t>
         </is>
       </c>
     </row>
@@ -809,34 +873,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1494.20556640625</v>
+        <v>0.7579102216800109</v>
       </c>
       <c r="C11" t="n">
-        <v>85414.12634609382</v>
+        <v>88502.71424061862</v>
       </c>
       <c r="D11" t="n">
-        <v>189.4636334035192</v>
+        <v>191.0489078641956</v>
       </c>
       <c r="E11" t="n">
-        <v>963043.6485900879</v>
+        <v>106.5612719726562</v>
       </c>
       <c r="F11" t="n">
-        <v>106.2771350097656</v>
+        <v>971101.5986737062</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7651785766272808</v>
+        <v>1494.328002929688</v>
       </c>
       <c r="H11" t="n">
-        <v>0.766290440991895</v>
-      </c>
-      <c r="I11" t="inlineStr">
+        <v>0.7624648298715547</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.071591081091954e+16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-105088.5944105314</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>TANH</t>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>TANH3</t>
         </is>
       </c>
     </row>
